--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_13.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183961</v>
+        <v>5475808.405183964</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>26.18187459043804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.778646031951277</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>123.7922091700869</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1370,70 +1370,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.285385643442</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1856,55 +1856,55 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>95.49935363464799</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>35.30306866089904</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.83262261310035</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>5.367167554266059</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,70 +3263,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>110.5627721675628</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3402,10 +3402,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>50.46697834767983</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>119.7194155574192</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,64 +3895,64 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>86.94298968588923</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>937.6108175404968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>694.1620408963968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>278.55024192591</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D5" t="n">
         <v>487.4018176583718</v>
@@ -4553,10 +4553,10 @@
         <v>487.4018176583718</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>839.0145199852959</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>603.8624117535533</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>603.8624117535533</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>396.0109115480204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D9" t="n">
-        <v>472.4543795481899</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2169245427344</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F9" t="n">
-        <v>166.6823665696193</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G9" t="n">
-        <v>27.95154115223485</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C14" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5315,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5944,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V23" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>249.0657303232264</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="C24" t="n">
-        <v>249.0657303232264</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="D24" t="n">
-        <v>249.0657303232264</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="E24" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>827.2279607494825</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>625.0413661082484</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>625.0413661082484</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>625.0413661082484</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W24" t="n">
-        <v>625.0413661082484</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X24" t="n">
-        <v>625.0413661082484</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y24" t="n">
-        <v>417.2810673432945</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6549,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>953.1151124671005</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>953.1151124671005</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>953.1151124671005</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>953.1151124671005</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>953.1151124671005</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6652,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>486.820788837921</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C33" t="n">
-        <v>312.367759556794</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>163.4333498955427</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="34">
@@ -6886,22 +6886,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>852.3775876646132</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>650.1909930233792</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>421.9673747597683</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>421.9673747597683</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>266.0282188019862</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7497,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>500.260318022696</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564972</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D45" t="n">
-        <v>49.38115216564972</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E45" t="n">
-        <v>49.38115216564972</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>876.2359538077178</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>876.2359538077178</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>668.4756550427639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,19 +22547,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>294.9288839697323</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>206.6187125589872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>346.9043955887317</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22835,7 +22835,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823864</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,19 +22917,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>102.1491729108879</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>103.6517501748946</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23258,22 +23258,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288198</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23495,19 +23495,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24096,25 +24096,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>28.88219696018794</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24206,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>62.14572682075296</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>136.3801024429388</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24573,10 +24573,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24652,13 +24652,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24695,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>89.32521153954279</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2759056302994</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>116.4431029116638</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>152.2779129011349</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25239,13 +25239,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.12039893627504</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,10 +25290,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,22 +25439,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,10 +25518,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25600,10 +25600,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>298.7739903697332</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>17.62410160579147</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25883,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25962,10 +25962,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>164.7519934750304</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142978</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26332,7 +26332,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26350,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26439,7 +26439,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26525,28 +26525,28 @@
         <v>59543.63588390042</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390043</v>
+        <v>59543.63588390041</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93171.23588390036</v>
+      </c>
+      <c r="G6" t="n">
         <v>93171.23588390039</v>
-      </c>
-      <c r="F6" t="n">
-        <v>93171.23588390043</v>
-      </c>
-      <c r="G6" t="n">
-        <v>93171.2358839004</v>
       </c>
       <c r="H6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="I6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="J6" t="n">
         <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="L6" t="n">
         <v>93171.23588390039</v>
@@ -26555,13 +26555,13 @@
         <v>93171.23588390039</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="O6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="P6" t="n">
         <v>93171.23588390039</v>
-      </c>
-      <c r="P6" t="n">
-        <v>93171.2358839004</v>
       </c>
     </row>
   </sheetData>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687632</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183964</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -662,67 +664,67 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>118.5540130169417</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -759,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,10 +1268,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="E11" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,11 +1615,11 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
     </row>
     <row r="19">
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>105.0025649415697</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>142.8009741436499</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2321,7 +2323,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2402,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>95.49935363464799</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>174.3702863852114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2482,52 +2484,52 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2752,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2801,58 +2803,58 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>146.9140566787055</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,10 +2882,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.83262261310035</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>56.26539607665198</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>129.9127281660003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>19.67201594479321</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
     </row>
     <row r="40">
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>208.2638363878123</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>119.7194155574192</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>5.414838319892292</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>72.47049842454862</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>104.096546343613</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>86.94298968588923</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4386,25 +4388,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>487.4018176583718</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4607,10 +4609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4914,19 +4916,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="10">
@@ -4978,13 +4980,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>255.9366034337592</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D11" t="n">
-        <v>255.9366034337592</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="13">
@@ -5215,25 +5217,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>710.516763498309</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X14" t="n">
-        <v>710.516763498309</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y14" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>846.5570557448675</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W15" t="n">
-        <v>603.1082791007675</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X15" t="n">
-        <v>395.2567788952347</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>718.6442178376129</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>718.6442178376129</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X21" t="n">
-        <v>718.6442178376129</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="22">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>290.1981659616912</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C24" t="n">
-        <v>115.7451366805642</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7451366805642</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="W24" t="n">
-        <v>290.1981659616912</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="X24" t="n">
-        <v>290.1981659616912</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y24" t="n">
-        <v>290.1981659616912</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1151124671005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>953.1151124671005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>953.1151124671005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>709.6663358230005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>709.6663358230005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>501.9060370580465</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6652,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.2867411876791</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.4635764168325</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>354.9290184437175</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>384.2867411876791</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>384.2867411876791</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>384.2867411876791</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.90796037760316</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="C36" t="n">
-        <v>23.90796037760316</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="D36" t="n">
-        <v>23.90796037760316</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="E36" t="n">
-        <v>23.90796037760316</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="F36" t="n">
-        <v>23.90796037760316</v>
+        <v>39.90599893955724</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>39.90599893955724</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W36" t="n">
-        <v>23.90796037760316</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X36" t="n">
-        <v>23.90796037760316</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.90796037760316</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7263,7 +7265,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C42" t="n">
-        <v>344.6327430815143</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D42" t="n">
-        <v>344.6327430815143</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E42" t="n">
-        <v>344.6327430815143</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F42" t="n">
-        <v>344.6327430815143</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117118</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347933</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>277.6047704292605</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>104.5536560184563</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729607</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>500.260318022696</v>
+        <v>521.2549444941226</v>
       </c>
       <c r="C45" t="n">
-        <v>325.807288741569</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D45" t="n">
-        <v>325.807288741569</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E45" t="n">
-        <v>166.5698337361135</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="W45" t="n">
-        <v>876.2359538077178</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="X45" t="n">
-        <v>876.2359538077178</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="Y45" t="n">
-        <v>668.4756550427639</v>
+        <v>689.4702815141906</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P12" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10911,10 +10913,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147211</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22550,19 +22552,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22595,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.51519937644223</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22647,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22799,10 +22801,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>138.8566050823864</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318534</v>
       </c>
       <c r="E11" t="n">
-        <v>147.6414643519508</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23391,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>101.5944580069804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23747,10 +23749,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23783,16 +23785,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>201.8487380088457</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>42.44250062306909</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.88219696018794</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,7 +24107,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24209,7 +24211,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>62.14572682075296</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>51.57109569576338</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>20.33988403799381</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,19 +24575,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24640,19 +24642,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>25.79444230961028</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24768,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>89.32521153954279</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>137.4068613958501</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>116.4431029116638</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>7.430788997210328</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,16 +25049,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>132.7629680684941</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>92.56342829170325</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25451,7 +25453,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25518,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>142.81920059726</v>
       </c>
     </row>
     <row r="40">
@@ -25594,13 +25596,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7562331984330797</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>17.62410160579147</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25764,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>200.2678574574121</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>276.7704702928644</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>68.61195264470275</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>164.7519934750304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142978</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
@@ -26335,7 +26337,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26352,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26439,7 +26441,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764729</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390042</v>
+        <v>59543.63588390043</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390041</v>
+        <v>59543.63588390037</v>
       </c>
       <c r="E6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="F6" t="n">
-        <v>93171.23588390036</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="G6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="H6" t="n">
         <v>93171.23588390039</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.2358839004</v>
       </c>
       <c r="I6" t="n">
         <v>93171.23588390037</v>
       </c>
       <c r="J6" t="n">
-        <v>30111.29328479416</v>
+        <v>30111.29328479421</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="L6" t="n">
         <v>93171.23588390039</v>
@@ -26558,7 +26560,7 @@
         <v>93171.23588390039</v>
       </c>
       <c r="O6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="P6" t="n">
         <v>93171.23588390039</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P12" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
